--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd4ca93d292370b2/Desktop/API_Testing_Pavan/SeleniumCourse/OpenCartFrameWork/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{FF8D4DD8-6540-4EB2-9E5E-6B129D395D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF2949D8-90D4-46CC-8644-3C33151293A2}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{FF8D4DD8-6540-4EB2-9E5E-6B129D395D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83F2A568-885A-4189-BE64-180657FC7A4A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -60,23 +60,23 @@
     <t>xyz</t>
   </si>
   <si>
-    <t>marita.parisian@example.com</t>
-  </si>
-  <si>
-    <t>rYqz@104</t>
-  </si>
-  <si>
-    <t>russell.nolan@example.com</t>
-  </si>
-  <si>
-    <t>lsgU@538</t>
+    <t>LatiaHauck123@example.com</t>
+  </si>
+  <si>
+    <t>yMeQ@225</t>
+  </si>
+  <si>
+    <t>ElliottLueilwitz123@example.com</t>
+  </si>
+  <si>
+    <t>eGyo@766</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,12 +91,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -152,7 +146,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -473,7 +467,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,10 +490,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -540,10 +534,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -554,8 +548,12 @@
     <hyperlink ref="A4" r:id="rId1" xr:uid="{8456409A-CACC-4B7E-B78E-75E713148E0E}"/>
     <hyperlink ref="A5" r:id="rId2" xr:uid="{94E9D5A6-98A1-4A25-BDDE-C5B20EDA887E}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{5E52A498-5B14-4BDC-BBF1-05425B8AC197}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{664C4CDF-BA8D-454F-8E0A-3C1522A451B4}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{FAAAB8FC-7F17-4246-8482-3C9431BD3D3A}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{1AF6F528-D51D-4613-BAC1-4B0A9A90938C}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{568A85C1-5960-4EF1-8EA2-465D1BAF36C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>
--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd4ca93d292370b2/Desktop/API_Testing_Pavan/SeleniumCourse/OpenCartFrameWork/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{FF8D4DD8-6540-4EB2-9E5E-6B129D395D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83F2A568-885A-4189-BE64-180657FC7A4A}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{FF8D4DD8-6540-4EB2-9E5E-6B129D395D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78AD6CC8-89AF-4B70-BB55-2596A5989AAB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +540,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
